--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T22:51:57-06:00</t>
+    <t>2024-04-24T11:28:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.5</t>
+    <t>0.4.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T11:28:13-05:00</t>
+    <t>2024-05-22T11:48:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/StructureDefinition/PhrBundle</t>
+    <t>http://hl7.org/fhir/uv/phr/StructureDefinition/PhrBundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T01:07:49-06:00</t>
+    <t>2024-12-13T21:36:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T21:36:12-06:00</t>
+    <t>2024-12-15T10:45:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T10:45:04-06:00</t>
+    <t>2024-12-15T12:17:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:17:17-06:00</t>
+    <t>2024-12-15T12:20:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:20:20-06:00</t>
+    <t>2024-12-15T20:08:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T20:08:17-06:00</t>
+    <t>2024-12-18T01:48:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T01:48:59-06:00</t>
+    <t>2024-12-18T11:20:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T11:20:50-06:00</t>
+    <t>2025-02-17T17:56:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T11:20:50-06:00</t>
+    <t>2025-03-04T22:49:02-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-04T22:49:02-06:00</t>
+    <t>2025-03-08T09:49:37-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-08T09:49:37-06:00</t>
+    <t>2025-03-11T13:10:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-PhrBundle.xlsx
+++ b/public/StructureDefinition-PhrBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T13:10:34-05:00</t>
+    <t>2025-03-20T16:03:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
